--- a/biology/Médecine/Références_médicales_opposables/Références_médicales_opposables.xlsx
+++ b/biology/Médecine/Références_médicales_opposables/Références_médicales_opposables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9f%C3%A9rences_m%C3%A9dicales_opposables</t>
+          <t>Références_médicales_opposables</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, les références médicales opposables (RMO) sont des recommandations de bonnes pratiques médicales concernant une pathologie. Créées en janvier 1993 par la convention médicale dans le but d’éviter les prescriptions abusives, elles sont non obligatoires bien qu'opposables, dans le cadre de l’exercice libéral de la médecine.
 C'est une régulation médicale des dépenses de santé.
